--- a/MinimumHydrologyScenarios/MinimumHydrologyResults.xlsx
+++ b/MinimumHydrologyScenarios/MinimumHydrologyResults.xlsx
@@ -137,23 +137,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="MinPerEnsemble" displayName="MinPerEnsemble" ref="A1:N23" headerRowCount="1">
-  <autoFilter ref="A1:N23"/>
-  <tableColumns count="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="MinPerEnsemble" displayName="MinPerEnsemble" ref="A1:G23" headerRowCount="1">
+  <autoFilter ref="A1:G23"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="Ensemble"/>
     <tableColumn id="2" name="Trace"/>
     <tableColumn id="3" name="Start Row"/>
     <tableColumn id="4" name="Average"/>
-    <tableColumn id="5" name="Value1"/>
-    <tableColumn id="6" name="Value2"/>
-    <tableColumn id="7" name="Value3"/>
-    <tableColumn id="8" name="Value4"/>
-    <tableColumn id="9" name="Value5"/>
-    <tableColumn id="10" name="Value6"/>
-    <tableColumn id="11" name="Value7"/>
-    <tableColumn id="12" name="Value8"/>
-    <tableColumn id="13" name="Value9"/>
-    <tableColumn id="14" name="Value10"/>
+    <tableColumn id="5" name="Year1"/>
+    <tableColumn id="6" name="Year2"/>
+    <tableColumn id="7" name="Year3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showRowStripes="1"/>
 </table>
@@ -448,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,52 +472,17 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Value1</t>
+          <t>Year1</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Value2</t>
+          <t>Year2</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Value3</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Value4</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Value5</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Value6</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Value7</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Value8</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Value9</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Value10</t>
+          <t>Year3</t>
         </is>
       </c>
     </row>
@@ -536,44 +494,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Trace1</t>
+          <t>Trace46</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="D2" t="n">
-        <v>12</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>10.6</v>
+        <v>5.9</v>
       </c>
       <c r="F2" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="G2" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="H2" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="I2" t="n">
         <v>9.6</v>
-      </c>
-      <c r="J2" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K2" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L2" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="M2" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="N2" t="n">
-        <v>14.3</v>
       </c>
     </row>
     <row r="3">
@@ -584,44 +521,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Trace2</t>
+          <t>Trace21</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="D3" t="n">
-        <v>12</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>8.5</v>
+        <v>5.9</v>
       </c>
       <c r="F3" t="n">
-        <v>9.1</v>
+        <v>10.5</v>
       </c>
       <c r="G3" t="n">
-        <v>14</v>
-      </c>
-      <c r="H3" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="I3" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="K3" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="L3" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="M3" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="N3" t="n">
-        <v>8.9</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="4">
@@ -632,44 +548,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Trace8</t>
+          <t>Trace18</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D4" t="n">
-        <v>11.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>8.6</v>
+        <v>5.9</v>
       </c>
       <c r="F4" t="n">
-        <v>17.7</v>
+        <v>10.5</v>
       </c>
       <c r="G4" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="H4" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="I4" t="n">
         <v>9.6</v>
-      </c>
-      <c r="J4" t="n">
-        <v>9</v>
-      </c>
-      <c r="K4" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="L4" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="N4" t="n">
-        <v>10.6</v>
       </c>
     </row>
     <row r="5">
@@ -684,40 +579,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>37</v>
+        <v>430</v>
       </c>
       <c r="D5" t="n">
-        <v>9.800000000000001</v>
+        <v>7</v>
       </c>
       <c r="E5" t="n">
-        <v>13.7</v>
+        <v>6.4</v>
       </c>
       <c r="F5" t="n">
-        <v>12.7</v>
+        <v>8.4</v>
       </c>
       <c r="G5" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="H5" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="I5" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="J5" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="N5" t="n">
-        <v>7.6</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="6">
@@ -728,44 +602,23 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Trace246</t>
+          <t>Trace1</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>392</v>
+        <v>430</v>
       </c>
       <c r="D6" t="n">
-        <v>9.800000000000001</v>
+        <v>7</v>
       </c>
       <c r="E6" t="n">
-        <v>13.7</v>
+        <v>6.4</v>
       </c>
       <c r="F6" t="n">
-        <v>12.7</v>
+        <v>8.4</v>
       </c>
       <c r="G6" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="H6" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="I6" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="J6" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="N6" t="n">
-        <v>7.6</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="7">
@@ -776,44 +629,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Trace87</t>
+          <t>Trace18</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D7" t="n">
-        <v>8.9</v>
+        <v>6.8</v>
       </c>
       <c r="E7" t="n">
-        <v>11.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>9.6</v>
+        <v>6.6</v>
       </c>
       <c r="G7" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="H7" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="I7" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="J7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="K7" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="L7" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="M7" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="N7" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="8">
@@ -824,44 +656,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Trace60</t>
+          <t>Trace1</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D8" t="n">
-        <v>8.699999999999999</v>
+        <v>5.9</v>
       </c>
       <c r="E8" t="n">
         <v>5.9</v>
       </c>
       <c r="F8" t="n">
-        <v>9</v>
+        <v>5.9</v>
       </c>
       <c r="G8" t="n">
-        <v>11</v>
-      </c>
-      <c r="H8" t="n">
-        <v>11</v>
-      </c>
-      <c r="I8" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="J8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="K8" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="L8" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="N8" t="n">
-        <v>9.1</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="9">
@@ -872,43 +683,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Trace93</t>
+          <t>Trace94</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>8.4</v>
+        <v>6.8</v>
       </c>
       <c r="E9" t="n">
-        <v>5.9</v>
+        <v>8.6</v>
       </c>
       <c r="F9" t="n">
-        <v>9.6</v>
+        <v>5.9</v>
       </c>
       <c r="G9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="H9" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="I9" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L9" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="M9" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="N9" t="n">
         <v>5.9</v>
       </c>
     </row>
@@ -924,40 +714,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D10" t="n">
-        <v>9.1</v>
+        <v>4.7</v>
       </c>
       <c r="E10" t="n">
-        <v>9.300000000000001</v>
+        <v>10</v>
       </c>
       <c r="F10" t="n">
-        <v>9.6</v>
+        <v>-1.3</v>
       </c>
       <c r="G10" t="n">
-        <v>10</v>
-      </c>
-      <c r="H10" t="n">
-        <v>-1.3</v>
-      </c>
-      <c r="I10" t="n">
         <v>5.4</v>
-      </c>
-      <c r="J10" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="K10" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L10" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="M10" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="N10" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -968,44 +737,23 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Trace48</t>
+          <t>Trace58</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D11" t="n">
-        <v>9.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="E11" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="G11" t="n">
         <v>10.5</v>
-      </c>
-      <c r="F11" t="n">
-        <v>11</v>
-      </c>
-      <c r="G11" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="H11" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="I11" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="J11" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="K11" t="n">
-        <v>11</v>
-      </c>
-      <c r="L11" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="M11" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="N11" t="n">
-        <v>9.4</v>
       </c>
     </row>
     <row r="12">
@@ -1016,44 +764,23 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Trace89</t>
+          <t>Trace55</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D12" t="n">
-        <v>8.9</v>
+        <v>6.8</v>
       </c>
       <c r="E12" t="n">
-        <v>9.1</v>
+        <v>5.9</v>
       </c>
       <c r="F12" t="n">
         <v>5.9</v>
       </c>
       <c r="G12" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="H12" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="I12" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="J12" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="K12" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="L12" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="M12" t="n">
-        <v>14</v>
-      </c>
-      <c r="N12" t="n">
-        <v>5.9</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="13">
@@ -1064,44 +791,23 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Trace93</t>
+          <t>Trace33</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D13" t="n">
-        <v>9.4</v>
+        <v>5.5</v>
       </c>
       <c r="E13" t="n">
         <v>5.5</v>
       </c>
       <c r="F13" t="n">
-        <v>9.199999999999999</v>
+        <v>5.5</v>
       </c>
       <c r="G13" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="H13" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="I13" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="J13" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="K13" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="L13" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="M13" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="N13" t="n">
-        <v>11.7</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="14">
@@ -1112,44 +818,23 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Trace8</t>
+          <t>Trace99</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D14" t="n">
-        <v>7.7</v>
+        <v>6</v>
       </c>
       <c r="E14" t="n">
-        <v>8.300000000000001</v>
+        <v>5.6</v>
       </c>
       <c r="F14" t="n">
-        <v>8.199999999999999</v>
+        <v>5.6</v>
       </c>
       <c r="G14" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="H14" t="n">
         <v>6.8</v>
-      </c>
-      <c r="I14" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="J14" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="K14" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="L14" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="M14" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="N14" t="n">
-        <v>5.6</v>
       </c>
     </row>
     <row r="15">
@@ -1160,44 +845,23 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Trace54</t>
+          <t>Trace55</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="D15" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="E15" t="n">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="F15" t="n">
-        <v>7.4</v>
+        <v>5.1</v>
       </c>
       <c r="G15" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-      <c r="I15" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="J15" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="K15" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="L15" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="M15" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="N15" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="16">
@@ -1212,7 +876,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1226,27 +890,6 @@
       <c r="G16" t="n">
         <v>0</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1256,44 +899,23 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>65</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D17" t="n">
-        <v>7.5</v>
+        <v>4.7</v>
       </c>
       <c r="E17" t="n">
-        <v>7.6</v>
+        <v>3.8</v>
       </c>
       <c r="F17" t="n">
-        <v>4.1</v>
+        <v>6.3</v>
       </c>
       <c r="G17" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H17" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="I17" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="J17" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="K17" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="L17" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="M17" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="N17" t="n">
-        <v>8.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1304,44 +926,23 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>trace93</t>
+          <t>trace18</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D18" t="n">
-        <v>10.9</v>
+        <v>8.1</v>
       </c>
       <c r="E18" t="n">
-        <v>8.800000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="F18" t="n">
-        <v>10.3</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="G18" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="H18" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="J18" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="K18" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="L18" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="M18" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="N18" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1352,44 +953,23 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>trace93</t>
+          <t>trace18</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D19" t="n">
-        <v>9.4</v>
+        <v>7.2</v>
       </c>
       <c r="E19" t="n">
-        <v>7.9</v>
+        <v>5</v>
       </c>
       <c r="F19" t="n">
-        <v>9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G19" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="H19" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="I19" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="K19" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="L19" t="n">
         <v>8</v>
-      </c>
-      <c r="M19" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="N19" t="n">
-        <v>10.1</v>
       </c>
     </row>
     <row r="20">
@@ -1400,44 +980,23 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>trace93</t>
+          <t>trace18</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D20" t="n">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="E20" t="n">
-        <v>7</v>
+        <v>4.4</v>
       </c>
       <c r="F20" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="G20" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="H20" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="I20" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="J20" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="K20" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="L20" t="n">
-        <v>7</v>
-      </c>
-      <c r="M20" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="N20" t="n">
-        <v>8.4</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="21">
@@ -1448,44 +1007,23 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>trace93</t>
+          <t>trace17</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D21" t="n">
-        <v>9.9</v>
+        <v>7.3</v>
       </c>
       <c r="E21" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F21" t="n">
-        <v>9.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G21" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="H21" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="I21" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="J21" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="K21" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L21" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="M21" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="N21" t="n">
-        <v>10.7</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="22">
@@ -1496,44 +1034,23 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>trace93</t>
+          <t>trace17</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D22" t="n">
-        <v>7.3</v>
+        <v>5.5</v>
       </c>
       <c r="E22" t="n">
-        <v>6.3</v>
+        <v>3.8</v>
       </c>
       <c r="F22" t="n">
-        <v>7.3</v>
+        <v>6.6</v>
       </c>
       <c r="G22" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H22" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="J22" t="n">
-        <v>6</v>
-      </c>
-      <c r="K22" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="L22" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="M22" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="N22" t="n">
-        <v>7.6</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="23">
@@ -1544,44 +1061,23 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>trace93</t>
+          <t>trace17</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D23" t="n">
-        <v>5.1</v>
+        <v>3.9</v>
       </c>
       <c r="E23" t="n">
-        <v>4.6</v>
+        <v>2.8</v>
       </c>
       <c r="F23" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="G23" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H23" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="I23" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K23" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L23" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="M23" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="N23" t="n">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
     </row>
   </sheetData>
